--- a/Covid-19-Clusters.xlsx
+++ b/Covid-19-Clusters.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vizcount\Desktop\Info Visual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcW7\Documents\BERT\!NITADE\2020\MAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B040649E-5377-4F20-AD4D-9578988BE55A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="clusters" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,121 +58,490 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="158">
+  <si>
+    <t>CORONAVIRUS CLUSTERS (superspreading events)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปั - จ - จั - ย </t>
+  </si>
+  <si>
+    <t>เ - สี่ - ย - ง</t>
+  </si>
+  <si>
+    <t>สถานที่แพร่ระบาด</t>
+  </si>
+  <si>
+    <t>เมือง</t>
+  </si>
+  <si>
+    <t>ประเทศ</t>
+  </si>
   <si>
     <t>Timeline</t>
   </si>
   <si>
+    <t>ประเภทสถานที่</t>
+  </si>
+  <si>
+    <t>ประเภทกิจกรรม (superspreding events)</t>
+  </si>
+  <si>
+    <t>จำนวนผู้ติดเชื้อ(คน)</t>
+  </si>
+  <si>
+    <t>Super Spreader</t>
+  </si>
+  <si>
+    <t>อาหารแปลก</t>
+  </si>
+  <si>
+    <t>สถานที่แออัด</t>
+  </si>
+  <si>
+    <t>สุขอนามัย</t>
+  </si>
+  <si>
+    <t>การสัมผัสใกล้ชิด</t>
+  </si>
+  <si>
+    <t>ความล่าช้าในการรับมือ</t>
+  </si>
+  <si>
+    <t>การปกปิดข้อมูล</t>
+  </si>
+  <si>
+    <t>แหล่งอ้างอิง</t>
+  </si>
+  <si>
+    <t>ตลาดหัวหนาน</t>
+  </si>
+  <si>
     <t>อู่ฮั่น</t>
   </si>
   <si>
     <t>จีน</t>
   </si>
   <si>
+    <t>ตลาดสด</t>
+  </si>
+  <si>
+    <t>อาหารการกิน</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>https://mgronline.com/travel/detail/9630000009038</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/future/article/20200221-coronavirus-the-harmful-hunt-for-covid-19s-patient-zero</t>
+  </si>
+  <si>
+    <t>โรงพยาบาล</t>
+  </si>
+  <si>
     <t>หูเป่ย</t>
   </si>
   <si>
+    <t>การรักษาพยาบาล</t>
+  </si>
+  <si>
+    <t>http://www.chinadaily.com.cn/a/202002/29/WS5e5a6b82a31012821727b494_6.html</t>
+  </si>
+  <si>
+    <t>เรือนจำเหริ่นเชิง</t>
+  </si>
+  <si>
     <t>ชานตง</t>
   </si>
   <si>
+    <t>ทัณฑสถาน</t>
+  </si>
+  <si>
+    <t>การคุมขัง</t>
+  </si>
+  <si>
+    <t>https://www.posttoday.com/world/615475</t>
+  </si>
+  <si>
+    <t>เรือนจำหญิงอู่ฮั่น</t>
+  </si>
+  <si>
+    <t>https://www.bangkokbiznews.com/news/detail/867374</t>
+  </si>
+  <si>
+    <t>ไลฟ์เฮาส์อาร์ค</t>
+  </si>
+  <si>
     <t>โอซาก้า</t>
   </si>
   <si>
     <t>ญี่ปุ่น</t>
   </si>
   <si>
+    <t>ผับ</t>
+  </si>
+  <si>
+    <t>บันเทิง</t>
+  </si>
+  <si>
+    <t>https://www.japantimes.co.jp/news/2020/03/07/national/mass-covid-19-infections-suspected-two-osaka-music-venues/#.XmVQJnIzaM8</t>
+  </si>
+  <si>
+    <t>http://www.asahi.com/ajw/articles/13182614</t>
+  </si>
+  <si>
+    <t>โบสถ์ชินชอนจี</t>
+  </si>
+  <si>
     <t>แทกู</t>
   </si>
   <si>
     <t>เกาหลีใต้</t>
   </si>
   <si>
+    <t>โบสถ์</t>
+  </si>
+  <si>
+    <t>ความเชื่อ/ศาสนา</t>
+  </si>
+  <si>
+    <t>คุณป้า หมายเลข  31 (หญิงวัย 61 ปี ที่เชื่อว่าแพร่เชื้อให้เพื่อนร่วมลัทธิเกือบ 40 คน)</t>
+  </si>
+  <si>
+    <t>https://www.aljazeera.com/news/2020/03/31-south-korea-sudden-spike-coronavirus-cases-200303065953841.html</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/foreign/1785008</t>
+  </si>
+  <si>
+    <t>https://judprakai.bangkokbiznews.com/social/1505</t>
+  </si>
+  <si>
+    <t>https://www.livescience.com/coronavirus-superspreader-south-korea-church.html</t>
+  </si>
+  <si>
+    <t>โรงแรมแกรนด์ไฮแอท</t>
+  </si>
+  <si>
     <t>สิงคโปร์</t>
   </si>
   <si>
     <t xml:space="preserve">สิงคโปร์ </t>
   </si>
   <si>
+    <t>โรงแรม</t>
+  </si>
+  <si>
+    <t>งานสัมมนา</t>
+  </si>
+  <si>
+    <t>สตีฟ วอลช์ (นักธุรกิจชาวอังกฤษวัย 53 ปี กลับไปยุโรปและเขาไปเล่นสกีที่ฝรั่งเศส ที่นั่นเชื่อว่าเขาแพร่เชื้อให้ผู้ป่วยอย่างน้อย 11 ราย)</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/thai/international-51499600</t>
+  </si>
+  <si>
+    <t>https://www.straitstimes.com/singapore/health/coronavirus-full-recovery-for-all-three-local-cases-from-grand-hyatt-cluster</t>
+  </si>
+  <si>
+    <t>ร้านย้งไถ่อัง</t>
+  </si>
+  <si>
+    <t>ร้านค้า</t>
+  </si>
+  <si>
+    <t>ช็อปปิ้ง</t>
+  </si>
+  <si>
+    <t>https://www.channelnewsasia.com/news/singapore/wuhan-virus-coronavirus-singapore-community-spread-tourists-12389314?cid=TWTcna</t>
+  </si>
+  <si>
+    <t>https://www.straitstimes.com/singapore/coronavirus-3-from-yong-thai-hang-cluster-among-15-discharged-so-far</t>
+  </si>
+  <si>
+    <t>โบสถ์เกรซ แอซเซมบลี ออฟ ก๊อด</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยรายที่ 66 (Case 66 หนุ่มวัย 28 ปีที่ติดเชื้อมาจากงานฉลองตรุษจีนและไปทำงานที่โบสถ์ เขาแพร่เชื้อให้แก่เพื่อนร่วมงานในโบสถ์เกือบ 10 ชีวิต)</t>
+  </si>
+  <si>
+    <t>https://www.channelnewsasia.com/news/singapore/coronavirus-covid-19-senior-pastor-grace-assembly-god-church-12432584</t>
+  </si>
+  <si>
+    <t>https://www.channelnewsasia.com/news/singapore/grace-assembly-of-god-covid-19-cluster-how-it-unfolded-12457448</t>
+  </si>
+  <si>
+    <t>https://www.channelnewsasia.com/news/singapore/covid19-coronavirus-missing-link-found-church-clusters-12469236</t>
+  </si>
+  <si>
+    <t>บริษัทวิซเลิร์น</t>
+  </si>
+  <si>
+    <t>บริษัท</t>
+  </si>
+  <si>
+    <t>งานออฟฟิศ</t>
+  </si>
+  <si>
+    <t>https://www.straitstimes.com/singapore/coronavirus-four-new-cases-confirmed-all-linked-to-wizlearn-technologies-cluster-three</t>
+  </si>
+  <si>
+    <t>https://mothership.sg/2020/03/wizlearn-cluster-cases/</t>
+  </si>
+  <si>
+    <t>ห้องจัดเลี้ยงเลนโต</t>
+  </si>
+  <si>
     <t>กวนตง</t>
   </si>
   <si>
     <t>ฮ่องกง</t>
   </si>
   <si>
+    <t>ห้องจัดเลี้ยง</t>
+  </si>
+  <si>
+    <t>https://www.dimsumdaily.hk/lento-party-room-in-kwun-tong-suspends-business-operation-after-11-people-contract-novel-coronavirus/</t>
+  </si>
+  <si>
+    <t>https://www.todayonline.com/world/can-hotpot-meal-infect-you-coronavirus-hong-kong-businesses-shun-menu-item-amid-news-familys?cid=h3_referral_inarticlelinks_03092019_todayonline</t>
+  </si>
+  <si>
+    <t>วัดฟุกไวชิงเฉอ</t>
+  </si>
+  <si>
     <t>นอร์ธพอยต์</t>
   </si>
   <si>
+    <t>วัด</t>
+  </si>
+  <si>
+    <t>https://www.straitstimes.com/asia/east-asia/hong-kong-buddhist-temple-becomes-host-to-cluster-of-coronavirus-infections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เรือไดมอนด์ ปริ๊นเซส ครูส </t>
+  </si>
+  <si>
     <t>โยโกฮามา</t>
   </si>
   <si>
+    <t>เริอสำราญ</t>
+  </si>
+  <si>
+    <t>การท่องเที่ยว</t>
+  </si>
+  <si>
+    <t>https://www.bangkokbiznews.com/news/detail/867798</t>
+  </si>
+  <si>
+    <t>https://www.medicalnewstoday.com/articles/quarantine-on-covid-19-cruise-ship-may-have-led-to-more-infections</t>
+  </si>
+  <si>
+    <t>https://www.businessinsider.com/diamond-princess-sail-again-april-coronavirus-outbreak-2020-2</t>
+  </si>
+  <si>
+    <t>เรือล่องแม่น้ำยากาตาบูเนะ</t>
+  </si>
+  <si>
     <t>โตเกียว</t>
   </si>
   <si>
+    <t>เรือสำราญ</t>
+  </si>
+  <si>
+    <t>งานเลี้ยง</t>
+  </si>
+  <si>
+    <t>https://mainichi.jp/english/articles/20200217/p2a/00m/0na/012000c</t>
+  </si>
+  <si>
+    <t>https://www.japantimes.co.jp/news/2020/02/15/national/eight-coronavirus-infections-confirmed-tokyo-japan-sees-spate-domestic-transmissions/#.Xmeu_3IzaM8</t>
+  </si>
+  <si>
+    <t>ฮอกไกโดเทรดแฟร์</t>
+  </si>
+  <si>
     <t>ฮอกไกโด</t>
   </si>
   <si>
+    <t>ศูนย์ประชุม</t>
+  </si>
+  <si>
+    <t>งานแสดงสินค้า</t>
+  </si>
+  <si>
+    <t>https://www3.nhk.or.jp/nhkworld/en/news/backstories/900/</t>
+  </si>
+  <si>
+    <t>รัฐสภาอิหร่าน</t>
+  </si>
+  <si>
     <t>เตหะราน</t>
   </si>
   <si>
     <t>อิหร่าน</t>
   </si>
   <si>
+    <t>รัฐสภา</t>
+  </si>
+  <si>
+    <t>การประชุม</t>
+  </si>
+  <si>
+    <t>https://www.businessinsider.com/8-percent-iran-parliament-has-coronavirus-it-released-54000-prisoners-2020-3</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/foreign/news_2025643</t>
+  </si>
+  <si>
+    <t>เมืองกอม</t>
+  </si>
+  <si>
     <t>กอม</t>
   </si>
   <si>
+    <t>ที่แสวงบุญ</t>
+  </si>
+  <si>
+    <t>https://www.newyorker.com/news/our-columnists/how-iran-became-a-new-epicenter-of-the-coronavirus-outbreak?irclickid=Xoo03t3TexyORtVwUx0Mo3Q1UknXaEyOL3UF0k0&amp;irgwc=1&amp;source=affiliate_impactpmx_12f6tote_desktop_adgoal%20GmbH&amp;utm_source=impact-affiliate&amp;utm_medium=123201&amp;utm_campaign=impact&amp;utm_content=Online%20Tracking%20Link&amp;utm_brand=tny</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/foreign/1780393</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/news/world-middle-east-51673053</t>
+  </si>
+  <si>
+    <t>แคว้นลอมบาร์ดีและเวเนโต</t>
+  </si>
+  <si>
     <t>ลอมบาร์ดี, เวเนโต</t>
   </si>
   <si>
     <t>อิตาลี</t>
   </si>
   <si>
+    <t>เมืองท่องเที่ยว</t>
+  </si>
+  <si>
+    <t>แมทเทีย (นักวิ่งวัย 38 ปี แพร่เชื้อให้คนรอบข้าง 13 คน)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bbc.com/news/world-middle-east-51673053 </t>
+  </si>
+  <si>
+    <t>https://www.posttoday.com/world/617010</t>
+  </si>
+  <si>
+    <t>https://www.abc.net.au/news/2020-03-09/coronavirus-disrupts-all-of-italy-not-just-lombardy/12038332</t>
+  </si>
+  <si>
+    <t>https://www.dailymail.co.uk/health/article-8050705/Trail-Italian-coronavirus-super-spreader-Marathon-runner-38-heart-crisis-Europe.html</t>
+  </si>
+  <si>
+    <t>กรุงโรม</t>
+  </si>
+  <si>
     <t>โรม</t>
   </si>
   <si>
+    <t>https://time.com/5799107/italy-coronavirus-quarantine/</t>
+  </si>
+  <si>
+    <t>https://www.npr.org/2020/03/06/812904540/with-italys-coronavirus-cases-rising-fast-rome-s-streets-go-quiet</t>
+  </si>
+  <si>
+    <t>https://track.webgains.com/click.html?wglinkid=2788985&amp;wgcampaignid=16644&amp;js=0&amp;clickref=at106140_a170975_m12_p12460_cTH&amp;wgtarget=https%3A%2F%2Fwww.telegraph.co.uk%2Ftravel%2Fnews%2Fitaly-coronavirus-advice-is-it-safe-travel%2F</t>
+  </si>
+  <si>
+    <t>เรือสำราญล่องแม่น้ำไนล์</t>
+  </si>
+  <si>
     <t>ลักซอร์</t>
   </si>
   <si>
     <t>อียิปต์</t>
   </si>
   <si>
+    <t>https://www.africanews.com/2020/03/08/covdi-19-egypt-records-33-new-cases-on-cruise-ship/</t>
+  </si>
+  <si>
+    <t>https://www.theguardian.com/world/2020/mar/07/egypt-announces-33-new-covid-19-cases-on-cruise-ship</t>
+  </si>
+  <si>
     <t>นิวเซาธ์เวลส์</t>
   </si>
   <si>
     <t>ออสเตรเลีย</t>
   </si>
   <si>
+    <t>โรงพยาบาล, บ้านพักคนชรา, โรงเรียน</t>
+  </si>
+  <si>
+    <t>https://www.smh.com.au/national/how-covid-19-is-spreading-across-sydney-20200310-p548pb.html</t>
+  </si>
+  <si>
+    <t>https://www.tnnthailand.com/content/30611</t>
+  </si>
+  <si>
+    <t>เขตอวซ</t>
+  </si>
+  <si>
     <t>โอดฟร็องซ์</t>
   </si>
   <si>
     <t>ฝรั่งเศส</t>
   </si>
   <si>
+    <t>โรงเรียน, ฐานทัพอากาศ</t>
+  </si>
+  <si>
+    <t>การศึกษา</t>
+  </si>
+  <si>
+    <t>คุณครูวัย 60 (แพร่เชื้อให้อีก 18 คน และเสียชีวิตในภายหลัง)</t>
+  </si>
+  <si>
+    <t>https://www.ryt9.com/s/iq38/3101149</t>
+  </si>
+  <si>
+    <t>https://www.aa.com.tr/en/europe/france-unveils-emergency-measures-as-covid-19-spreads/1748853</t>
+  </si>
+  <si>
+    <t>https://www.connexionfrance.com/French-news/Updated-map-shows-where-new-coronavirus-cases-are-in-France</t>
+  </si>
+  <si>
+    <t>https://www.sortiraparis.com/news/coronavirus/articles/210162-coronavirus-update-on-the-situation-in-paris-and-ile-de-france/lang/en</t>
+  </si>
+  <si>
     <t>นอร์ธ ไรน์ เวสต์ฟาเลีย</t>
   </si>
   <si>
     <t>เยอรมนี</t>
   </si>
   <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>infected</t>
+    <t>เทศกาล</t>
+  </si>
+  <si>
+    <t>http://www.xinhuanet.com/english/2020-03/02/c_138836605.htm</t>
+  </si>
+  <si>
+    <t>https://www.nst.com.my/world/world/2020/03/572961/germans-told-stay-home-covid-19-cases-pass-900</t>
+  </si>
+  <si>
+    <t>ท้องถนน</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="187" formatCode="B1d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,11 +551,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,15 +614,33 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -246,15 +674,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,424 +1001,1107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="15" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J4" s="3"/>
+      <c r="K4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13">
+        <v>43830</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>27</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="13">
+        <v>43881</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>2055</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="13">
+        <v>43882</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="H8">
+        <v>200</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="13">
+        <v>43882</v>
+      </c>
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3">
-        <v>43830</v>
-      </c>
-      <c r="E2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>43881</v>
-      </c>
-      <c r="E3">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>43882</v>
-      </c>
-      <c r="E4">
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>43882</v>
-      </c>
-      <c r="E5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="13">
+        <v>43897</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <v>39</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="13">
+        <v>43879</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <v>2800</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>51</v>
+      </c>
+      <c r="S11" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="13">
+        <v>43853</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="P12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="13">
+        <v>43866</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="K13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="P13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="13">
+        <v>43874</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="P14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="13">
+        <v>43890</v>
+      </c>
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="14"/>
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="13">
+        <v>43870</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <v>11</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="13">
+        <v>43886</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17">
+        <v>18</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="13">
+        <v>43886</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18">
+        <v>600</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="14"/>
+      <c r="P18" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>92</v>
+      </c>
+      <c r="R18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="13">
+        <v>43874</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19">
+        <v>11</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="13">
+        <v>43874</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20">
         <v>6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="K20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="13">
+        <v>43890</v>
+      </c>
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21">
+        <v>23</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>111</v>
+      </c>
+      <c r="R21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="13">
+        <v>43885</v>
+      </c>
+      <c r="F22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22">
+        <v>88</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>116</v>
+      </c>
+      <c r="R22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="13">
+        <v>43883</v>
+      </c>
+      <c r="F23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23">
+        <v>2000</v>
+      </c>
+      <c r="I23" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>124</v>
+      </c>
+      <c r="R23" t="s">
+        <v>125</v>
+      </c>
+      <c r="S23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="13">
+        <v>43892</v>
+      </c>
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>130</v>
+      </c>
+      <c r="R24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="13">
         <v>43897</v>
       </c>
-      <c r="E6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3">
-        <v>43879</v>
-      </c>
-      <c r="E7">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3">
-        <v>43853</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3">
-        <v>43866</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3">
-        <v>43874</v>
-      </c>
-      <c r="E10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>43890</v>
-      </c>
-      <c r="E11">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3">
-        <v>43870</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25">
+        <v>45</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="13">
+        <v>43892</v>
+      </c>
+      <c r="F26" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26">
+        <v>61</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="13">
+        <v>43892</v>
+      </c>
+      <c r="F27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27">
+        <v>91</v>
+      </c>
+      <c r="I27" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>149</v>
+      </c>
+      <c r="R27" t="s">
+        <v>150</v>
+      </c>
+      <c r="S27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="13">
         <v>43886</v>
       </c>
-      <c r="E13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3">
-        <v>43886</v>
-      </c>
-      <c r="E14">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3">
-        <v>43874</v>
-      </c>
-      <c r="E15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3">
-        <v>43874</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3">
-        <v>43890</v>
-      </c>
-      <c r="E17">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3">
-        <v>43885</v>
-      </c>
-      <c r="E18">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3">
-        <v>43883</v>
-      </c>
-      <c r="E19">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="3">
-        <v>43892</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="3">
-        <v>43897</v>
-      </c>
-      <c r="E21">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="3">
-        <v>43892</v>
-      </c>
-      <c r="E22">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="3">
-        <v>43892</v>
-      </c>
-      <c r="E23">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="3">
-        <v>43886</v>
-      </c>
-      <c r="E24">
+      <c r="F28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28">
         <v>400</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Covid-19-Clusters.xlsx
+++ b/Covid-19-Clusters.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcW7\Documents\BERT\!NITADE\2020\MAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vizcount\Desktop\Info Visual\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289E807E-E299-48B2-9C66-819EA656BCC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clusters" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,16 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="158">
-  <si>
-    <t>CORONAVIRUS CLUSTERS (superspreading events)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ปั - จ - จั - ย </t>
-  </si>
-  <si>
-    <t>เ - สี่ - ย - ง</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="156">
   <si>
     <t>สถานที่แพร่ระบาด</t>
   </si>
@@ -532,46 +524,25 @@
   </si>
   <si>
     <t>ท้องถนน</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="187" formatCode="B1d\-mmm\-yy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -614,18 +585,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -640,7 +605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -700,28 +665,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,12 +974,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1019,1094 +990,1075 @@
     <col min="10" max="15" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="9">
+        <v>43830</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>27</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9">
+        <v>43881</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>2055</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="J4" s="3"/>
-      <c r="K4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="3"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9">
+        <v>43882</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="9" t="s">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="12"/>
+      <c r="E5" s="9">
+        <v>43882</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="13">
-        <v>43830</v>
+        <v>36</v>
+      </c>
+      <c r="E6" s="9">
+        <v>43897</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>27</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>23</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="13">
-        <v>43881</v>
+        <v>43</v>
+      </c>
+      <c r="E7" s="9">
+        <v>43879</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="H7">
-        <v>2055</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>23</v>
+        <v>2800</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="P7" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="13">
-        <v>43882</v>
+        <v>53</v>
+      </c>
+      <c r="E8" s="9">
+        <v>43853</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H8">
-        <v>200</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="10"/>
       <c r="P8" t="s">
-        <v>34</v>
+        <v>57</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="13">
-        <v>43882</v>
+        <v>53</v>
+      </c>
+      <c r="E9" s="9">
+        <v>43866</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H9">
-        <v>200</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="10"/>
       <c r="P9" t="s">
-        <v>36</v>
+        <v>62</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="13">
-        <v>43897</v>
+        <v>53</v>
+      </c>
+      <c r="E10" s="9">
+        <v>43874</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H10">
-        <v>39</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="10"/>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="Q10" t="s">
-        <v>43</v>
+        <v>67</v>
+      </c>
+      <c r="R10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="13">
-        <v>43879</v>
+        <v>53</v>
+      </c>
+      <c r="E11" s="9">
+        <v>43890</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="H11">
-        <v>2800</v>
-      </c>
-      <c r="I11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="10"/>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="Q11" t="s">
-        <v>51</v>
-      </c>
-      <c r="S11" t="s">
-        <v>52</v>
-      </c>
-      <c r="T11" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="13">
-        <v>43853</v>
+        <v>76</v>
+      </c>
+      <c r="E12" s="9">
+        <v>43870</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="I12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
       <c r="P12" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="13">
-        <v>43866</v>
+        <v>76</v>
+      </c>
+      <c r="E13" s="9">
+        <v>43886</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
       <c r="P13" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="13">
-        <v>43874</v>
+        <v>36</v>
+      </c>
+      <c r="E14" s="9">
+        <v>43886</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="H14">
-        <v>23</v>
-      </c>
-      <c r="I14" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N14" s="14"/>
+        <v>600</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="10"/>
       <c r="P14" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="Q14" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="R14" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="13">
-        <v>43890</v>
+        <v>36</v>
+      </c>
+      <c r="E15" s="9">
+        <v>43874</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H15">
-        <v>14</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
       <c r="P15" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="Q15" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="13">
-        <v>43870</v>
+        <v>36</v>
+      </c>
+      <c r="E16" s="9">
+        <v>43874</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>11</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
       <c r="P16" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="13">
-        <v>43886</v>
+        <v>104</v>
+      </c>
+      <c r="E17" s="9">
+        <v>43890</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="H17">
-        <v>18</v>
-      </c>
-      <c r="K17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
+      <c r="K17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="P17" t="s">
-        <v>86</v>
+        <v>107</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>108</v>
+      </c>
+      <c r="R17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="9">
+        <v>43885</v>
+      </c>
+      <c r="F18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18">
         <v>88</v>
       </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="13">
-        <v>43886</v>
-      </c>
-      <c r="F18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18">
-        <v>600</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="14"/>
+      <c r="K18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="P18" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="Q18" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="R18" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="13">
-        <v>43874</v>
+        <v>117</v>
+      </c>
+      <c r="E19" s="9">
+        <v>43883</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H19">
-        <v>11</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
+        <v>2000</v>
+      </c>
+      <c r="I19" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
       <c r="P19" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="Q19" t="s">
-        <v>99</v>
+        <v>121</v>
+      </c>
+      <c r="R19" t="s">
+        <v>122</v>
+      </c>
+      <c r="S19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="13">
-        <v>43874</v>
+        <v>117</v>
+      </c>
+      <c r="E20" s="9">
+        <v>43892</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
       <c r="P20" t="s">
-        <v>104</v>
+        <v>126</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>127</v>
+      </c>
+      <c r="R20" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="13">
-        <v>43890</v>
+        <v>131</v>
+      </c>
+      <c r="E21" s="9">
+        <v>43897</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="H21">
-        <v>23</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>23</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
       <c r="P21" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="Q21" t="s">
-        <v>111</v>
-      </c>
-      <c r="R21" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="13">
-        <v>43885</v>
+        <v>135</v>
+      </c>
+      <c r="E22" s="9">
+        <v>43892</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H22">
-        <v>88</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>23</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
       <c r="P22" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="Q22" t="s">
-        <v>116</v>
-      </c>
-      <c r="R22" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="13">
-        <v>43883</v>
+        <v>141</v>
+      </c>
+      <c r="E23" s="9">
+        <v>43892</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="H23">
-        <v>2000</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s">
-        <v>122</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
+        <v>144</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
       <c r="P23" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="Q23" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="R23" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="S23" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="13">
-        <v>43892</v>
+        <v>150</v>
+      </c>
+      <c r="E24" s="9">
+        <v>43886</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="G24" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="H24">
-        <v>10</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
+        <v>400</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="Q24" t="s">
-        <v>130</v>
-      </c>
-      <c r="R24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="13">
-        <v>43897</v>
-      </c>
-      <c r="F25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25">
-        <v>45</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="13">
-        <v>43892</v>
-      </c>
-      <c r="F26" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26">
-        <v>61</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="13">
-        <v>43892</v>
-      </c>
-      <c r="F27" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" t="s">
-        <v>146</v>
-      </c>
-      <c r="H27">
-        <v>91</v>
-      </c>
-      <c r="I27" t="s">
-        <v>147</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>149</v>
-      </c>
-      <c r="R27" t="s">
-        <v>150</v>
-      </c>
-      <c r="S27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>23</v>
-      </c>
-      <c r="B28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" t="s">
         <v>153</v>
-      </c>
-      <c r="E28" s="13">
-        <v>43886</v>
-      </c>
-      <c r="F28" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" t="s">
-        <v>154</v>
-      </c>
-      <c r="H28">
-        <v>400</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>